--- a/data-raw/auris_and_albicans/HYS8.xlsx
+++ b/data-raw/auris_and_albicans/HYS8.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\sveta\Documents\B Lab\cross-tolerance\data-raw\auris_and_albicans\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3599E910-00D9-4F7E-927B-03F7512C85C9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2237AEA9-7274-44BD-B29B-D4AFCC1E9960}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>

--- a/data-raw/auris_and_albicans/HYS8.xlsx
+++ b/data-raw/auris_and_albicans/HYS8.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\sveta\Documents\B Lab\cross-tolerance\data-raw\auris_and_albicans\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2237AEA9-7274-44BD-B29B-D4AFCC1E9960}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FAC2CC67-D883-4E4E-8EF7-AD65A129D587}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="FRS152_CTRL" sheetId="2" r:id="rId1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="104" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="200" uniqueCount="30">
   <si>
     <t>well</t>
   </si>
@@ -476,10 +476,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CF9B5C6D-A791-4FF6-A01E-31E2B8188904}">
-  <dimension ref="A1:D25"/>
+  <dimension ref="A1:D49"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A21" workbookViewId="0">
-      <selection activeCell="C25" sqref="C25"/>
+    <sheetView topLeftCell="A47" workbookViewId="0">
+      <selection activeCell="C50" sqref="C50"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -834,6 +834,342 @@
         <v>1</v>
       </c>
     </row>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A26" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B26" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="C26" s="5">
+        <v>0.3131000102</v>
+      </c>
+      <c r="D26">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A27" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="B27" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C27" s="5">
+        <v>5.4200001060000003E-2</v>
+      </c>
+      <c r="D27">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A28" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B28" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="C28" s="5">
+        <v>0.1955000013</v>
+      </c>
+      <c r="D28">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A29" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="B29" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="C29" s="5">
+        <v>0.1861999929</v>
+      </c>
+      <c r="D29">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A30" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="B30" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="C30" s="5">
+        <v>0.17530000209999999</v>
+      </c>
+      <c r="D30">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A31" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="B31" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="C31" s="5">
+        <v>0.2264000028</v>
+      </c>
+      <c r="D31">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A32" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="B32" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="C32" s="5">
+        <v>0.1155000031</v>
+      </c>
+      <c r="D32">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A33" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="B33" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C33" s="5">
+        <v>5.4200001060000003E-2</v>
+      </c>
+      <c r="D33">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A34" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="B34" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="C34" s="5">
+        <v>0.30840000509999999</v>
+      </c>
+      <c r="D34">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A35" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="B35" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="C35" s="5">
+        <v>0.32179999349999999</v>
+      </c>
+      <c r="D35">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A36" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="B36" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C36" s="5">
+        <v>5.3700000050000002E-2</v>
+      </c>
+      <c r="D36">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A37" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="B37" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="C37" s="5">
+        <v>0.36970001460000002</v>
+      </c>
+      <c r="D37">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A38" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="B38" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C38" s="5">
+        <v>5.319999903E-2</v>
+      </c>
+      <c r="D38">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A39" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="B39" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="C39" s="5">
+        <v>0.38029998539999998</v>
+      </c>
+      <c r="D39">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A40" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="B40" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="C40" s="5">
+        <v>0.36259999869999998</v>
+      </c>
+      <c r="D40">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="41" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A41" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="B41" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="C41" s="5">
+        <v>0.43200001119999998</v>
+      </c>
+      <c r="D41">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="42" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A42" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="B42" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="C42" s="5">
+        <v>0.21349999310000001</v>
+      </c>
+      <c r="D42">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="43" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A43" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="B43" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="C43" s="5">
+        <v>0.23749999699999999</v>
+      </c>
+      <c r="D43">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="44" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A44" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="B44" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="C44" s="5">
+        <v>0.26449999210000003</v>
+      </c>
+      <c r="D44">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="45" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A45" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="B45" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C45" s="5">
+        <v>5.4800000039999998E-2</v>
+      </c>
+      <c r="D45">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="46" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A46" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="B46" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="C46" s="5">
+        <v>0.25870001320000002</v>
+      </c>
+      <c r="D46">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="47" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A47" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="B47" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C47" s="5">
+        <v>5.3599998349999997E-2</v>
+      </c>
+      <c r="D47">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="48" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A48" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="B48" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="C48" s="5">
+        <v>0.33469998839999998</v>
+      </c>
+      <c r="D48">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="49" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A49" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="B49" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="C49" s="5">
+        <v>0.44789999720000001</v>
+      </c>
+      <c r="D49">
+        <v>2</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -841,10 +1177,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D25"/>
+  <dimension ref="A1:D49"/>
   <sheetViews>
-    <sheetView topLeftCell="A5" workbookViewId="0">
-      <selection activeCell="D2" sqref="D2:D25"/>
+    <sheetView tabSelected="1" topLeftCell="A29" workbookViewId="0">
+      <selection activeCell="C49" sqref="C49"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1199,6 +1535,342 @@
         <v>1</v>
       </c>
     </row>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A26" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B26" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="C26" s="5">
+        <v>0.47249999640000001</v>
+      </c>
+      <c r="D26">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A27" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="B27" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C27" s="5">
+        <v>6.0800001030000002E-2</v>
+      </c>
+      <c r="D27">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A28" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B28" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="C28" s="5">
+        <v>0.42879998679999998</v>
+      </c>
+      <c r="D28">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A29" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="B29" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="C29" s="5">
+        <v>0.38679999110000002</v>
+      </c>
+      <c r="D29">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A30" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="B30" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="C30" s="5">
+        <v>0.50840002299999998</v>
+      </c>
+      <c r="D30">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A31" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="B31" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="C31" s="5">
+        <v>0.4431999922</v>
+      </c>
+      <c r="D31">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A32" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="B32" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="C32" s="5">
+        <v>0.45300000909999999</v>
+      </c>
+      <c r="D32">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A33" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="B33" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C33" s="5">
+        <v>5.5500000719999998E-2</v>
+      </c>
+      <c r="D33">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A34" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="B34" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="C34" s="5">
+        <v>0.63160002230000001</v>
+      </c>
+      <c r="D34">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A35" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="B35" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="C35" s="5">
+        <v>0.45350000260000001</v>
+      </c>
+      <c r="D35">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A36" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="B36" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C36" s="5">
+        <v>5.3300000729999998E-2</v>
+      </c>
+      <c r="D36">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A37" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="B37" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="C37" s="5">
+        <v>0.45989999180000002</v>
+      </c>
+      <c r="D37">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A38" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="B38" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C38" s="5">
+        <v>5.090000108E-2</v>
+      </c>
+      <c r="D38">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A39" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="B39" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="C39" s="5">
+        <v>0.54619997740000004</v>
+      </c>
+      <c r="D39">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A40" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="B40" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="C40" s="5">
+        <v>0.52090001109999995</v>
+      </c>
+      <c r="D40">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="41" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A41" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="B41" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="C41" s="5">
+        <v>0.63279998299999995</v>
+      </c>
+      <c r="D41">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="42" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A42" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="B42" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="C42" s="5">
+        <v>0.67119997740000004</v>
+      </c>
+      <c r="D42">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="43" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A43" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="B43" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="C43" s="5">
+        <v>0.59469997880000003</v>
+      </c>
+      <c r="D43">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="44" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A44" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="B44" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="C44" s="5">
+        <v>0.5392000079</v>
+      </c>
+      <c r="D44">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="45" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A45" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="B45" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C45" s="5">
+        <v>5.8299999679999999E-2</v>
+      </c>
+      <c r="D45">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="46" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A46" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="B46" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="C46" s="5">
+        <v>0.66689997909999998</v>
+      </c>
+      <c r="D46">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="47" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A47" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="B47" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C47" s="5">
+        <v>5.3399998689999999E-2</v>
+      </c>
+      <c r="D47">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="48" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A48" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="B48" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="C48" s="5">
+        <v>0.68169999120000002</v>
+      </c>
+      <c r="D48">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="49" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A49" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="B49" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="C49" s="5">
+        <v>0.74769997600000004</v>
+      </c>
+      <c r="D49">
+        <v>2</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
